--- a/Excel/inflation_data.xlsx
+++ b/Excel/inflation_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\OneDrive - Dokuz Eylül Üniversitesi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\Trading Bot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AD45EF9-1D54-40B7-A629-ED5BCEC83C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855AA471-71C5-40D6-91B9-ACC7EAF4E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{9CCF7F57-EA40-4E3B-AED0-B0BE30E7BA26}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -454,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBAB6BA-6AC7-4154-864B-18B7737EA35C}">
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:P349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45261</v>
       </c>
@@ -478,7 +481,7 @@
         <v>3.3521230000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45231</v>
       </c>
@@ -486,7 +489,7 @@
         <v>3.1372710000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45200</v>
       </c>
@@ -494,7 +497,7 @@
         <v>3.2411449999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45170</v>
       </c>
@@ -502,7 +505,7 @@
         <v>3.6996980000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45139</v>
       </c>
@@ -510,7 +513,7 @@
         <v>3.6651120000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45108</v>
       </c>
@@ -518,7 +521,7 @@
         <v>3.1777799999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45078</v>
       </c>
@@ -526,7 +529,7 @@
         <v>2.9691779999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45047</v>
       </c>
@@ -534,7 +537,7 @@
         <v>4.0476089999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45017</v>
       </c>
@@ -542,7 +545,7 @@
         <v>4.93032</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44986</v>
       </c>
@@ -550,7 +553,7 @@
         <v>4.9849740000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44958</v>
       </c>
@@ -558,7 +561,7 @@
         <v>6.0356129999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44927</v>
       </c>
@@ -566,7 +569,7 @@
         <v>6.4101470000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44896</v>
       </c>
@@ -574,7 +577,7 @@
         <v>6.4544009999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44866</v>
       </c>
@@ -582,12 +585,15 @@
         <v>7.1103230000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
       <c r="B16" s="2">
         <v>7.7454270000000003</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
